--- a/src/scripts/employees.xlsx
+++ b/src/scripts/employees.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>employee_id</t>
   </si>
@@ -32,6 +32,12 @@
     <t>whatsapp_number</t>
   </si>
   <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>is_qr_sent</t>
+  </si>
+  <si>
     <t>city</t>
   </si>
   <si>
@@ -47,6 +53,12 @@
     <t>https://aadhar.gov.in/emp01</t>
   </si>
   <si>
+    <t>dsfd7d8df</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Pune</t>
   </si>
   <si>
@@ -62,6 +74,9 @@
     <t>https://aadhar.gov.in/emp02</t>
   </si>
   <si>
+    <t>dsfd7d8sdsdf</t>
+  </si>
+  <si>
     <t>emp03</t>
   </si>
   <si>
@@ -74,6 +89,9 @@
     <t>https://aadhar.gov.in/emp03</t>
   </si>
   <si>
+    <t>dsfwewewd7d8df</t>
+  </si>
+  <si>
     <t>pune</t>
   </si>
   <si>
@@ -89,6 +107,9 @@
     <t>https://aadhar.gov.in/emp05</t>
   </si>
   <si>
+    <t>dsfsdsad7d8df</t>
+  </si>
+  <si>
     <t>emp06</t>
   </si>
   <si>
@@ -101,6 +122,9 @@
     <t>https://aadhar.gov.in/emp06</t>
   </si>
   <si>
+    <t>w2ddd</t>
+  </si>
+  <si>
     <t>Nagpur</t>
   </si>
   <si>
@@ -114,6 +138,9 @@
   </si>
   <si>
     <t>https://aadhar.gov.in/emp04</t>
+  </si>
+  <si>
+    <t>casda</t>
   </si>
   <si>
     <t>jaipur</t>
@@ -124,19 +151,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -179,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -187,17 +208,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -223,15 +238,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F7" displayName="Table4" name="Table4" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:F7"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H7" displayName="Table4" name="Table4" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:H7"/>
+  <tableColumns count="8">
     <tableColumn name="employee_id" id="1"/>
     <tableColumn name="first_name" id="2"/>
     <tableColumn name="last_name" id="3"/>
     <tableColumn name="aadhar_link" id="4"/>
     <tableColumn name="whatsapp_number" id="5"/>
-    <tableColumn name="city" id="6"/>
+    <tableColumn name="uuid" id="6"/>
+    <tableColumn name="is_qr_sent" id="7"/>
+    <tableColumn name="city" id="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -525,18 +542,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -558,125 +577,167 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3">
         <v>9075529490</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3">
         <v>8830427235</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3">
         <v>9075072341</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3">
         <v>6354107850</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3">
         <v>8530797631</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3">
-        <v>9075529490</v>
+        <v>907552949098</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/scripts/employees.xlsx
+++ b/src/scripts/employees.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>employee_id</t>
   </si>
@@ -26,7 +26,7 @@
     <t>last_name</t>
   </si>
   <si>
-    <t>aadhar_link</t>
+    <t>email</t>
   </si>
   <si>
     <t>whatsapp_number</t>
@@ -50,7 +50,7 @@
     <t>shitole</t>
   </si>
   <si>
-    <t>https://aadhar.gov.in/emp01</t>
+    <t>dummy@email.com</t>
   </si>
   <si>
     <t>dsfd7d8df</t>
@@ -71,9 +71,6 @@
     <t>Somwanshi</t>
   </si>
   <si>
-    <t>https://aadhar.gov.in/emp02</t>
-  </si>
-  <si>
     <t>dsfd7d8sdsdf</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>biradar</t>
   </si>
   <si>
-    <t>https://aadhar.gov.in/emp03</t>
-  </si>
-  <si>
     <t>dsfwewewd7d8df</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t>patil</t>
   </si>
   <si>
-    <t>https://aadhar.gov.in/emp05</t>
-  </si>
-  <si>
     <t>dsfsdsad7d8df</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>alur</t>
   </si>
   <si>
-    <t>https://aadhar.gov.in/emp06</t>
-  </si>
-  <si>
     <t>w2ddd</t>
   </si>
   <si>
@@ -135,9 +123,6 @@
   </si>
   <si>
     <t>agrawal</t>
-  </si>
-  <si>
-    <t>https://aadhar.gov.in/emp04</t>
   </si>
   <si>
     <t>casda</t>
@@ -244,7 +229,7 @@
     <tableColumn name="employee_id" id="1"/>
     <tableColumn name="first_name" id="2"/>
     <tableColumn name="last_name" id="3"/>
-    <tableColumn name="aadhar_link" id="4"/>
+    <tableColumn name="email" id="4"/>
     <tableColumn name="whatsapp_number" id="5"/>
     <tableColumn name="uuid" id="6"/>
     <tableColumn name="is_qr_sent" id="7"/>
@@ -551,7 +536,7 @@
     <col min="1" max="1" style="5" width="13.862142857142858" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="35.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -621,13 +606,13 @@
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
         <v>8830427235</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
@@ -638,106 +623,106 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3">
         <v>9075072341</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="3">
         <v>6354107850</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="3">
         <v>8530797631</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3">
         <v>907552949098</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/scripts/employees.xlsx
+++ b/src/scripts/employees.xlsx
@@ -8,14 +8,19 @@
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="Sheet2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="134">
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
   <si>
     <t>employee_id</t>
   </si>
@@ -26,70 +31,166 @@
     <t>last_name</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>whatsapp_number</t>
   </si>
   <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>is_qr_sent</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
-    <t>emp01</t>
-  </si>
-  <si>
-    <t>pranav</t>
-  </si>
-  <si>
-    <t>shitole</t>
-  </si>
-  <si>
-    <t>dummy@email.com</t>
-  </si>
-  <si>
-    <t>dsfd7d8df</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>ShDe043</t>
+  </si>
+  <si>
+    <t>shruti.deshpande@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69043</t>
+  </si>
+  <si>
+    <t>Shruti</t>
+  </si>
+  <si>
+    <t>Deshpande</t>
+  </si>
+  <si>
+    <t>9527329742</t>
   </si>
   <si>
     <t>Pune</t>
   </si>
   <si>
-    <t>emp02</t>
-  </si>
-  <si>
-    <t>pratik</t>
+    <t>ShTi058</t>
+  </si>
+  <si>
+    <t>shrikant.tiwari@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrikant </t>
+  </si>
+  <si>
+    <t>Tiwari</t>
+  </si>
+  <si>
+    <t>9340545264</t>
+  </si>
+  <si>
+    <t>HrPa005</t>
+  </si>
+  <si>
+    <t>hritik.patle@tmf-group.com</t>
+  </si>
+  <si>
+    <t>64005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hritik </t>
+  </si>
+  <si>
+    <t>Patle</t>
+  </si>
+  <si>
+    <t>9630666336</t>
+  </si>
+  <si>
+    <t>PrSo053</t>
+  </si>
+  <si>
+    <t>pratik.somwanshi@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69053</t>
+  </si>
+  <si>
+    <t>Pratik</t>
   </si>
   <si>
     <t>Somwanshi</t>
   </si>
   <si>
-    <t>dsfd7d8sdsdf</t>
-  </si>
-  <si>
-    <t>emp03</t>
-  </si>
-  <si>
-    <t>sangam</t>
-  </si>
-  <si>
-    <t>biradar</t>
-  </si>
-  <si>
-    <t>dsfwewewd7d8df</t>
-  </si>
-  <si>
-    <t>pune</t>
-  </si>
-  <si>
-    <t>emp05</t>
+    <t>8830427235</t>
+  </si>
+  <si>
+    <t>TeAn047</t>
+  </si>
+  <si>
+    <t>teja.annapureddy@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69047</t>
+  </si>
+  <si>
+    <t>Teja</t>
+  </si>
+  <si>
+    <t>Annapureddy</t>
+  </si>
+  <si>
+    <t>8688096502</t>
+  </si>
+  <si>
+    <t>ViPa036</t>
+  </si>
+  <si>
+    <t>vishal.pawar1@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69036</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t>Pawar</t>
+  </si>
+  <si>
+    <t>7447822328</t>
+  </si>
+  <si>
+    <t>PrAl066</t>
+  </si>
+  <si>
+    <t>prateek.alur@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69066</t>
+  </si>
+  <si>
+    <t>Prateek</t>
+  </si>
+  <si>
+    <t>Alur</t>
+  </si>
+  <si>
+    <t>8530797631</t>
+  </si>
+  <si>
+    <t>LoAj006</t>
+  </si>
+  <si>
+    <t>lokesh.ajgaonkar@tmf-group.com</t>
+  </si>
+  <si>
+    <t>64006</t>
+  </si>
+  <si>
+    <t>Lokesh</t>
+  </si>
+  <si>
+    <t>Ajgaonkar</t>
+  </si>
+  <si>
+    <t>7774850499</t>
+  </si>
+  <si>
+    <t>sapa063</t>
+  </si>
+  <si>
+    <t>saish.patil@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69063</t>
   </si>
   <si>
     <t>saish</t>
@@ -98,37 +199,223 @@
     <t>patil</t>
   </si>
   <si>
-    <t>dsfsdsad7d8df</t>
-  </si>
-  <si>
-    <t>emp06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prateek </t>
-  </si>
-  <si>
-    <t>alur</t>
-  </si>
-  <si>
-    <t>w2ddd</t>
-  </si>
-  <si>
-    <t>Nagpur</t>
-  </si>
-  <si>
-    <t>emp04</t>
-  </si>
-  <si>
-    <t>yugal</t>
-  </si>
-  <si>
-    <t>agrawal</t>
-  </si>
-  <si>
-    <t>casda</t>
-  </si>
-  <si>
-    <t>jaipur</t>
+    <t>6354107850</t>
+  </si>
+  <si>
+    <t>SiKa31`</t>
+  </si>
+  <si>
+    <t>siddhant.kamble@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69031`</t>
+  </si>
+  <si>
+    <t>Siddhant</t>
+  </si>
+  <si>
+    <t>Kamble</t>
+  </si>
+  <si>
+    <t>7841809932</t>
+  </si>
+  <si>
+    <t>AdKh048</t>
+  </si>
+  <si>
+    <t>advait.kharat@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69048</t>
+  </si>
+  <si>
+    <t>Advait</t>
+  </si>
+  <si>
+    <t>Kharat</t>
+  </si>
+  <si>
+    <t>9921517989</t>
+  </si>
+  <si>
+    <t>PrSa046</t>
+  </si>
+  <si>
+    <t>pranav.santhosh@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69046</t>
+  </si>
+  <si>
+    <t>Pranav</t>
+  </si>
+  <si>
+    <t>Santhosh</t>
+  </si>
+  <si>
+    <t>8296437684</t>
+  </si>
+  <si>
+    <t>PrSh050</t>
+  </si>
+  <si>
+    <t>pranav.shitole@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69050</t>
+  </si>
+  <si>
+    <t>Shitole</t>
+  </si>
+  <si>
+    <t>9075529490</t>
+  </si>
+  <si>
+    <t>HaCh041</t>
+  </si>
+  <si>
+    <t>harsh.chavan@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69041</t>
+  </si>
+  <si>
+    <t>Harsh</t>
+  </si>
+  <si>
+    <t>Chavan</t>
+  </si>
+  <si>
+    <t>9890167989</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>mech044</t>
+  </si>
+  <si>
+    <t>medha.choudhari@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69044</t>
+  </si>
+  <si>
+    <t>medha</t>
+  </si>
+  <si>
+    <t>choudhari</t>
+  </si>
+  <si>
+    <t>9130478425</t>
+  </si>
+  <si>
+    <t>RiKu049</t>
+  </si>
+  <si>
+    <t>riddhi.kulkarni@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riddhi </t>
+  </si>
+  <si>
+    <t>Kulkarni</t>
+  </si>
+  <si>
+    <t>9420377388</t>
+  </si>
+  <si>
+    <t>YuAg035</t>
+  </si>
+  <si>
+    <t>yugal.agarwal@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69035</t>
+  </si>
+  <si>
+    <t>Yugal</t>
+  </si>
+  <si>
+    <t>Agarwal</t>
+  </si>
+  <si>
+    <t>8696731165</t>
+  </si>
+  <si>
+    <t>SaTa037</t>
+  </si>
+  <si>
+    <t>sayali.tambe@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69037</t>
+  </si>
+  <si>
+    <t>Sayali</t>
+  </si>
+  <si>
+    <t>Tambe</t>
+  </si>
+  <si>
+    <t>7028535380</t>
+  </si>
+  <si>
+    <t>PrKa051</t>
+  </si>
+  <si>
+    <t>pranay.kanala@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69051</t>
+  </si>
+  <si>
+    <t>Pranay</t>
+  </si>
+  <si>
+    <t>Kanala</t>
+  </si>
+  <si>
+    <t>8328009759</t>
+  </si>
+  <si>
+    <t>FaSy042</t>
+  </si>
+  <si>
+    <t>fawazalisaeed.ahmedsyed@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69042</t>
+  </si>
+  <si>
+    <t>Fawaz Ali</t>
+  </si>
+  <si>
+    <t>Syed</t>
+  </si>
+  <si>
+    <t>8237448360</t>
+  </si>
+  <si>
+    <t>SaBi038</t>
+  </si>
+  <si>
+    <t>sangam.biradar@tmf-group.com</t>
+  </si>
+  <si>
+    <t>69038</t>
+  </si>
+  <si>
+    <t>Sangam</t>
+  </si>
+  <si>
+    <t>Biradar</t>
+  </si>
+  <si>
+    <t>9075072341</t>
   </si>
 </sst>
 </file>
@@ -136,26 +423,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,14 +440,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -185,28 +452,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -223,17 +475,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H7" displayName="Table4" name="Table4" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:H7"/>
-  <tableColumns count="8">
-    <tableColumn name="employee_id" id="1"/>
-    <tableColumn name="first_name" id="2"/>
-    <tableColumn name="last_name" id="3"/>
-    <tableColumn name="email" id="4"/>
-    <tableColumn name="whatsapp_number" id="5"/>
-    <tableColumn name="uuid" id="6"/>
-    <tableColumn name="is_qr_sent" id="7"/>
-    <tableColumn name="city" id="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G22" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:G22"/>
+  <tableColumns count="7">
+    <tableColumn name="uuid" id="1"/>
+    <tableColumn name="email" id="2"/>
+    <tableColumn name="employee_id" id="3"/>
+    <tableColumn name="first_name" id="4"/>
+    <tableColumn name="last_name" id="5"/>
+    <tableColumn name="whatsapp_number" id="6"/>
+    <tableColumn name="city" id="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -256,7 +507,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -268,7 +519,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -527,23 +778,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,10 +803,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -565,25 +815,22 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="3">
-        <v>9075529490</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -591,138 +838,465 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
-        <v>8830427235</v>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3">
-        <v>9075072341</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3">
-        <v>6354107850</v>
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3">
-        <v>8530797631</v>
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3">
-        <v>907552949098</v>
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>37</v>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -731,19 +1305,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>